--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业营业成本.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业营业成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1579 +623,1355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.76011</v>
+        <v>149</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0073</v>
+        <v>14.1</v>
       </c>
       <c r="D2" t="n">
-        <v>13.86721</v>
+        <v>22.6</v>
       </c>
       <c r="E2" t="n">
-        <v>335.87961</v>
+        <v>1000.55023</v>
       </c>
       <c r="F2" t="n">
-        <v>1.99306</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>2.16273</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>17.3</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>60.09078</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>230.8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.33878</v>
+        <v>0.6</v>
       </c>
       <c r="L2" t="n">
-        <v>261.42873</v>
+        <v>829.1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.65218</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>97.11190000000001</v>
+        <v>196.3</v>
       </c>
       <c r="O2" t="n">
-        <v>4.95497</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>2.21076</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.54133</v>
+        <v>64</v>
       </c>
       <c r="R2" t="n">
-        <v>0.42988</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>6.23694</v>
+        <v>25.5</v>
       </c>
       <c r="T2" t="n">
-        <v>315.95677</v>
+        <v>834.2</v>
       </c>
       <c r="U2" t="n">
-        <v>65.04575</v>
+        <v>240.8</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>9.414680000000001</v>
+        <v>10.6</v>
       </c>
       <c r="X2" t="n">
-        <v>33.43777</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.90955</v>
+        <v>107.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.17217</v>
+        <v>1.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.88493</v>
+        <v>22.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.09077</v>
+        <v>289.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.66046</v>
+        <v>16.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>38.77735</v>
+        <v>186.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.84563</v>
+        <v>68.8</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.80733</v>
+        <v>17.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.77058</v>
+        <v>4.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.04641</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.30469</v>
+        <v>42.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.06557</v>
+        <v>31.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.56886</v>
+        <v>1.1</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.0031</v>
+        <v>182.141</v>
       </c>
       <c r="C3" t="n">
-        <v>12.8814</v>
+        <v>10.001</v>
       </c>
       <c r="D3" t="n">
-        <v>27.298</v>
+        <v>24.1815</v>
       </c>
       <c r="E3" t="n">
-        <v>768.8288</v>
+        <v>1178.8139</v>
       </c>
       <c r="F3" t="n">
-        <v>7.8564</v>
+        <v>38.4583</v>
       </c>
       <c r="G3" t="n">
-        <v>12.6057</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>21.9207</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.39</v>
+      </c>
       <c r="I3" t="n">
-        <v>153.0808</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>301.6796</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1219</v>
+      </c>
       <c r="K3" t="n">
-        <v>0.7138</v>
+        <v>0.771</v>
       </c>
       <c r="L3" t="n">
-        <v>619.2772</v>
+        <v>992.0422</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.9304</v>
       </c>
       <c r="N3" t="n">
-        <v>172.2383</v>
+        <v>220.2165</v>
       </c>
       <c r="O3" t="n">
-        <v>9.991</v>
+        <v>11.6015</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7012</v>
+        <v>2.0356</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.4355</v>
+        <v>63.0623</v>
       </c>
       <c r="R3" t="n">
-        <v>1.0447</v>
+        <v>0.968</v>
       </c>
       <c r="S3" t="n">
-        <v>25.2114</v>
+        <v>27.5218</v>
       </c>
       <c r="T3" t="n">
-        <v>650.2201</v>
+        <v>974.7523</v>
       </c>
       <c r="U3" t="n">
-        <v>163.0718</v>
+        <v>313.2811</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>10.601</v>
+        <v>12.7654</v>
       </c>
       <c r="X3" t="n">
-        <v>56.1383</v>
+        <v>80.1853</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.1161</v>
+        <v>123.7094</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.3202</v>
+        <v>3.1393</v>
       </c>
       <c r="AA3" t="n">
-        <v>15.0566</v>
+        <v>27.4975</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.1066</v>
+        <v>319.4736</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.7188</v>
+        <v>16.3611</v>
       </c>
       <c r="AD3" t="n">
-        <v>131.5707</v>
+        <v>213.566</v>
       </c>
       <c r="AE3" t="n">
-        <v>48.595</v>
+        <v>68.5299</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.2221</v>
+        <v>21.0166</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.5503</v>
+        <v>4.7311</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.742000000000001</v>
+        <v>8.210800000000001</v>
       </c>
       <c r="AI3" t="n">
-        <v>32.4281</v>
+        <v>52.9385</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26.2837</v>
+        <v>34.7323</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3586</v>
+        <v>0.9942</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.55383</v>
+        <v>206.27506</v>
       </c>
       <c r="C4" t="n">
-        <v>11.40577</v>
+        <v>15.20544</v>
       </c>
       <c r="D4" t="n">
-        <v>21.27282</v>
+        <v>25.35551</v>
       </c>
       <c r="E4" t="n">
-        <v>809.0968</v>
+        <v>1226.60375</v>
       </c>
       <c r="F4" t="n">
-        <v>11.32566</v>
+        <v>42.71064</v>
       </c>
       <c r="G4" t="n">
-        <v>24.31637</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>23.91059</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.64475</v>
+      </c>
       <c r="I4" t="n">
-        <v>174.11068</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>331.01894</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05831</v>
+      </c>
       <c r="K4" t="n">
-        <v>0.27634</v>
+        <v>0.66574</v>
       </c>
       <c r="L4" t="n">
-        <v>662.63757</v>
+        <v>1072.38524</v>
       </c>
       <c r="M4" t="n">
-        <v>0.94421</v>
+        <v>0.97153</v>
       </c>
       <c r="N4" t="n">
-        <v>173.36178</v>
+        <v>233.02576</v>
       </c>
       <c r="O4" t="n">
-        <v>8.026350000000001</v>
+        <v>13.34584</v>
       </c>
       <c r="P4" t="n">
-        <v>1.70062</v>
+        <v>1.9539</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.59625</v>
+        <v>67.27423</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27586</v>
+        <v>0.79659</v>
       </c>
       <c r="S4" t="n">
-        <v>22.6418</v>
+        <v>25.27194</v>
       </c>
       <c r="T4" t="n">
-        <v>670.2266</v>
+        <v>996.4181</v>
       </c>
       <c r="U4" t="n">
-        <v>182.13703</v>
+        <v>344.36478</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>9.63514</v>
+        <v>11.18165</v>
       </c>
       <c r="X4" t="n">
-        <v>61.82656</v>
+        <v>44.35113</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.86297999999999</v>
+        <v>86.94428000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.65344</v>
+        <v>3.49499</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.74784</v>
+        <v>27.8582</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.15465</v>
+        <v>357.14314</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.80191</v>
+        <v>18.43611</v>
       </c>
       <c r="AD4" t="n">
-        <v>150.65678</v>
+        <v>235.62304</v>
       </c>
       <c r="AE4" t="n">
-        <v>51.24702</v>
+        <v>76.08795000000001</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.44894</v>
+        <v>26.99604</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.20096</v>
+        <v>4.53542</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.13997</v>
+        <v>8.130330000000001</v>
       </c>
       <c r="AI4" t="n">
-        <v>33.64202</v>
+        <v>46.18748</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24.6755</v>
+        <v>36.28769</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.27979</v>
+        <v>0.94425</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>262.11414</v>
       </c>
       <c r="C5" t="n">
-        <v>14.1</v>
+        <v>14.0569</v>
       </c>
       <c r="D5" t="n">
-        <v>22.6</v>
+        <v>25.06165</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.55023</v>
+        <v>1343.73033</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>17.10263</v>
       </c>
       <c r="G5" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>33.44973</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.35195</v>
+      </c>
       <c r="I5" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>420.30525</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.30849</v>
+      </c>
       <c r="K5" t="n">
-        <v>0.6</v>
+        <v>0.31507</v>
       </c>
       <c r="L5" t="n">
-        <v>829.1</v>
+        <v>1180.17772</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>0.36605</v>
       </c>
       <c r="N5" t="n">
-        <v>196.3</v>
+        <v>184.13056</v>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>38.4493</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.06908</v>
       </c>
       <c r="Q5" t="n">
-        <v>64</v>
+        <v>70.12352</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>0.85882</v>
       </c>
       <c r="S5" t="n">
-        <v>25.5</v>
+        <v>29.7942</v>
       </c>
       <c r="T5" t="n">
-        <v>834.2</v>
+        <v>1048.16646</v>
       </c>
       <c r="U5" t="n">
-        <v>240.8</v>
+        <v>458.75455</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>10.6</v>
+        <v>9.71861</v>
       </c>
       <c r="X5" t="n">
-        <v>72</v>
+        <v>45.6318</v>
       </c>
       <c r="Y5" t="n">
-        <v>107.4</v>
+        <v>93.42909</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.9</v>
+        <v>3.86544</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.8</v>
+        <v>33.90475</v>
       </c>
       <c r="AB5" t="n">
-        <v>289.4</v>
+        <v>431.72035</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.6</v>
+        <v>14.26419</v>
       </c>
       <c r="AD5" t="n">
-        <v>186.4</v>
+        <v>329.48531</v>
       </c>
       <c r="AE5" t="n">
-        <v>68.8</v>
+        <v>59.21699</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.6</v>
+        <v>28.75386</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.7</v>
+        <v>2.60862</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.199999999999999</v>
+        <v>4.63123</v>
       </c>
       <c r="AI5" t="n">
-        <v>42.5</v>
+        <v>53.78332</v>
       </c>
       <c r="AJ5" t="n">
-        <v>31.2</v>
+        <v>27.44646</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.1</v>
+        <v>0.85842</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182.141</v>
+        <v>281.52294</v>
       </c>
       <c r="C6" t="n">
-        <v>10.001</v>
+        <v>8.225440000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>24.1815</v>
+        <v>22.91741</v>
       </c>
       <c r="E6" t="n">
-        <v>1178.8139</v>
+        <v>1344</v>
       </c>
       <c r="F6" t="n">
-        <v>38.4583</v>
+        <v>14.68786</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9207</v>
+        <v>31.56941</v>
       </c>
       <c r="H6" t="n">
-        <v>0.39</v>
+        <v>2.51161</v>
       </c>
       <c r="I6" t="n">
-        <v>301.6796</v>
+        <v>446.2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1219</v>
+        <v>0.05906</v>
       </c>
       <c r="K6" t="n">
-        <v>0.771</v>
+        <v>0.19383</v>
       </c>
       <c r="L6" t="n">
-        <v>992.0422</v>
+        <v>1175.6</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9304</v>
+        <v>0.39493</v>
       </c>
       <c r="N6" t="n">
-        <v>220.2165</v>
+        <v>157.37575</v>
       </c>
       <c r="O6" t="n">
-        <v>11.6015</v>
+        <v>39.54313</v>
       </c>
       <c r="P6" t="n">
-        <v>2.0356</v>
+        <v>0.81313</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.0623</v>
+        <v>60.49912</v>
       </c>
       <c r="R6" t="n">
-        <v>0.968</v>
+        <v>0.78209</v>
       </c>
       <c r="S6" t="n">
-        <v>27.5218</v>
+        <v>26.06257</v>
       </c>
       <c r="T6" t="n">
-        <v>974.7523</v>
+        <v>1030.8013</v>
       </c>
       <c r="U6" t="n">
-        <v>313.2811</v>
+        <v>485.7</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>12.7654</v>
+        <v>17.97637</v>
       </c>
       <c r="X6" t="n">
-        <v>80.1853</v>
+        <v>41.11478</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.7094</v>
+        <v>107.84671</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.1393</v>
+        <v>4.50213</v>
       </c>
       <c r="AA6" t="n">
-        <v>27.4975</v>
+        <v>44.19437</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.4736</v>
+        <v>436.84558</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.3611</v>
+        <v>13.54504</v>
       </c>
       <c r="AD6" t="n">
-        <v>213.566</v>
+        <v>339.03431</v>
       </c>
       <c r="AE6" t="n">
-        <v>68.5299</v>
+        <v>58.5555</v>
       </c>
       <c r="AF6" t="n">
-        <v>21.0166</v>
+        <v>25.71073</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.7311</v>
+        <v>1.79438</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.210800000000001</v>
+        <v>3.98574</v>
       </c>
       <c r="AI6" t="n">
-        <v>52.9385</v>
+        <v>53.70894</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34.7323</v>
+        <v>21.52838</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.9942</v>
+        <v>0.39249</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.27506</v>
+        <v>296.1164</v>
       </c>
       <c r="C7" t="n">
-        <v>15.20544</v>
+        <v>7.6907</v>
       </c>
       <c r="D7" t="n">
-        <v>25.35551</v>
+        <v>23.1733</v>
       </c>
       <c r="E7" t="n">
-        <v>1226.60375</v>
+        <v>1405.5963</v>
       </c>
       <c r="F7" t="n">
-        <v>42.71064</v>
+        <v>14.8094</v>
       </c>
       <c r="G7" t="n">
-        <v>23.91059</v>
+        <v>34.685</v>
       </c>
       <c r="H7" t="n">
-        <v>0.64475</v>
+        <v>3.4361</v>
       </c>
       <c r="I7" t="n">
-        <v>331.01894</v>
+        <v>472.41</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05831</v>
+        <v>3.4087</v>
       </c>
       <c r="K7" t="n">
-        <v>0.66574</v>
+        <v>0.248</v>
       </c>
       <c r="L7" t="n">
-        <v>1072.38524</v>
+        <v>1236.7663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.97153</v>
+        <v>0.1145</v>
       </c>
       <c r="N7" t="n">
-        <v>233.02576</v>
+        <v>153.0263</v>
       </c>
       <c r="O7" t="n">
-        <v>13.34584</v>
+        <v>45.3928</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9539</v>
+        <v>1.5515</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.27423</v>
+        <v>55.2155</v>
       </c>
       <c r="R7" t="n">
-        <v>0.79659</v>
+        <v>0.9544</v>
       </c>
       <c r="S7" t="n">
-        <v>25.27194</v>
+        <v>19.9611</v>
       </c>
       <c r="T7" t="n">
-        <v>996.4181</v>
+        <v>1074.7943</v>
       </c>
       <c r="U7" t="n">
-        <v>344.36478</v>
+        <v>517.8025</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>11.18165</v>
+        <v>17.0729</v>
       </c>
       <c r="X7" t="n">
-        <v>44.35113</v>
+        <v>41.9736</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.94428000000001</v>
+        <v>113.6148</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.49499</v>
+        <v>2.5494</v>
       </c>
       <c r="AA7" t="n">
-        <v>27.8582</v>
+        <v>48.6106</v>
       </c>
       <c r="AB7" t="n">
-        <v>357.14314</v>
+        <v>470.6427</v>
       </c>
       <c r="AC7" t="n">
-        <v>18.43611</v>
+        <v>14.4255</v>
       </c>
       <c r="AD7" t="n">
-        <v>235.62304</v>
+        <v>368.0801</v>
       </c>
       <c r="AE7" t="n">
-        <v>76.08795000000001</v>
+        <v>59.8984</v>
       </c>
       <c r="AF7" t="n">
-        <v>26.99604</v>
+        <v>28.2394</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.53542</v>
+        <v>2.1633</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.130330000000001</v>
+        <v>3.9444</v>
       </c>
       <c r="AI7" t="n">
-        <v>46.18748</v>
+        <v>54.9678</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36.28769</v>
+        <v>19.4105</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.94425</v>
+        <v>0.2493</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.11414</v>
+        <v>334.0154</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0569</v>
+        <v>11.0558</v>
       </c>
       <c r="D8" t="n">
-        <v>25.06165</v>
+        <v>19.4112</v>
       </c>
       <c r="E8" t="n">
-        <v>1343.73033</v>
+        <v>1483.3954</v>
       </c>
       <c r="F8" t="n">
-        <v>17.10263</v>
+        <v>12.0728</v>
       </c>
       <c r="G8" t="n">
-        <v>33.44973</v>
+        <v>37.104</v>
       </c>
       <c r="H8" t="n">
-        <v>0.35195</v>
+        <v>3.3345</v>
       </c>
       <c r="I8" t="n">
-        <v>420.30525</v>
+        <v>520.5059</v>
       </c>
       <c r="J8" t="n">
-        <v>0.30849</v>
+        <v>2.6189</v>
       </c>
       <c r="K8" t="n">
-        <v>0.31507</v>
+        <v>0.2291</v>
       </c>
       <c r="L8" t="n">
-        <v>1180.17772</v>
+        <v>1306.9077</v>
       </c>
       <c r="M8" t="n">
-        <v>0.36605</v>
+        <v>0.1342</v>
       </c>
       <c r="N8" t="n">
-        <v>184.13056</v>
+        <v>139.7577</v>
       </c>
       <c r="O8" t="n">
-        <v>38.4493</v>
+        <v>50.171</v>
       </c>
       <c r="P8" t="n">
-        <v>1.06908</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.12352</v>
+        <v>57.2388</v>
       </c>
       <c r="R8" t="n">
-        <v>0.85882</v>
+        <v>1.0443</v>
       </c>
       <c r="S8" t="n">
-        <v>29.7942</v>
+        <v>22.3931</v>
       </c>
       <c r="T8" t="n">
-        <v>1048.16646</v>
+        <v>1112.2762</v>
       </c>
       <c r="U8" t="n">
-        <v>458.75455</v>
+        <v>570.6768</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>9.71861</v>
+        <v>16.1444</v>
       </c>
       <c r="X8" t="n">
-        <v>45.6318</v>
+        <v>43.7671</v>
       </c>
       <c r="Y8" t="n">
-        <v>93.42909</v>
+        <v>119.2497</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.86544</v>
+        <v>3.5231</v>
       </c>
       <c r="AA8" t="n">
-        <v>33.90475</v>
+        <v>53.1963</v>
       </c>
       <c r="AB8" t="n">
-        <v>431.72035</v>
+        <v>506.6486</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.26419</v>
+        <v>14.9176</v>
       </c>
       <c r="AD8" t="n">
-        <v>329.48531</v>
+        <v>403.4492</v>
       </c>
       <c r="AE8" t="n">
-        <v>59.21699</v>
+        <v>59.7066</v>
       </c>
       <c r="AF8" t="n">
-        <v>28.75386</v>
+        <v>28.5761</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.60862</v>
+        <v>1.254</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.63123</v>
+        <v>3.4146</v>
       </c>
       <c r="AI8" t="n">
-        <v>53.78332</v>
+        <v>54.5759</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27.44646</v>
+        <v>18.5083</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.85842</v>
+        <v>0.2824</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281.52294</v>
+        <v>349.199</v>
       </c>
       <c r="C9" t="n">
-        <v>8.225440000000001</v>
+        <v>15.631</v>
       </c>
       <c r="D9" t="n">
-        <v>22.91741</v>
+        <v>19.153</v>
       </c>
       <c r="E9" t="n">
-        <v>1344</v>
+        <v>1501.5461</v>
       </c>
       <c r="F9" t="n">
-        <v>14.68786</v>
+        <v>8.445</v>
       </c>
       <c r="G9" t="n">
-        <v>31.56941</v>
+        <v>39.577</v>
       </c>
       <c r="H9" t="n">
-        <v>2.51161</v>
+        <v>3.932</v>
       </c>
       <c r="I9" t="n">
-        <v>446.2</v>
+        <v>536.505</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05906</v>
+        <v>1.187</v>
       </c>
       <c r="K9" t="n">
-        <v>0.19383</v>
+        <v>0.152</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.6</v>
+        <v>1325.0474</v>
       </c>
       <c r="M9" t="n">
-        <v>0.39493</v>
+        <v>0.108</v>
       </c>
       <c r="N9" t="n">
-        <v>157.37575</v>
+        <v>121.566</v>
       </c>
       <c r="O9" t="n">
-        <v>39.54313</v>
+        <v>57.378</v>
       </c>
       <c r="P9" t="n">
-        <v>0.81313</v>
+        <v>0.632</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.49912</v>
+        <v>61.163</v>
       </c>
       <c r="R9" t="n">
-        <v>0.78209</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>26.06257</v>
+        <v>21.634</v>
       </c>
       <c r="T9" t="n">
-        <v>1030.8013</v>
+        <v>1112.735</v>
       </c>
       <c r="U9" t="n">
-        <v>485.7</v>
+        <v>593.884</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>17.97637</v>
+        <v>15.671</v>
       </c>
       <c r="X9" t="n">
-        <v>41.11478</v>
+        <v>42.849</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.84671</v>
+        <v>115.336</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.50213</v>
+        <v>3.714</v>
       </c>
       <c r="AA9" t="n">
-        <v>44.19437</v>
+        <v>51.916</v>
       </c>
       <c r="AB9" t="n">
-        <v>436.84558</v>
+        <v>531.8229</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.54504</v>
+        <v>13.101</v>
       </c>
       <c r="AD9" t="n">
-        <v>339.03431</v>
+        <v>441.75</v>
       </c>
       <c r="AE9" t="n">
-        <v>58.5555</v>
+        <v>49.854</v>
       </c>
       <c r="AF9" t="n">
-        <v>25.71073</v>
+        <v>27.1176</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.79438</v>
+        <v>1.072</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.98574</v>
+        <v>2.926</v>
       </c>
       <c r="AI9" t="n">
-        <v>53.70894</v>
+        <v>51.324</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21.52838</v>
+        <v>14.008</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.39249</v>
+        <v>0.18</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296.1164</v>
+        <v>336.7</v>
       </c>
       <c r="C10" t="n">
-        <v>7.6907</v>
+        <v>13.7</v>
       </c>
       <c r="D10" t="n">
-        <v>23.1733</v>
+        <v>20.9</v>
       </c>
       <c r="E10" t="n">
-        <v>1405.5963</v>
+        <v>1476.1</v>
       </c>
       <c r="F10" t="n">
-        <v>14.8094</v>
+        <v>0.7</v>
       </c>
       <c r="G10" t="n">
-        <v>34.685</v>
+        <v>31.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4361</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>472.41</v>
+        <v>501.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4087</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.248</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1236.7663</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.1145</v>
-      </c>
+        <v>1306.1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>153.0263</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>45.3928</v>
+        <v>62.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5515</v>
+        <v>0.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.2155</v>
+        <v>63.1</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9544</v>
+        <v>0.5</v>
       </c>
       <c r="S10" t="n">
-        <v>19.9611</v>
+        <v>24.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1074.7943</v>
+        <v>1104.8</v>
       </c>
       <c r="U10" t="n">
-        <v>517.8025</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>563.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.7</v>
+      </c>
       <c r="W10" t="n">
-        <v>17.0729</v>
+        <v>14.1</v>
       </c>
       <c r="X10" t="n">
-        <v>41.9736</v>
+        <v>41.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.6148</v>
+        <v>106.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.5494</v>
+        <v>2.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>48.6106</v>
+        <v>48.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>470.6427</v>
+        <v>569.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.4255</v>
+        <v>10.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>368.0801</v>
+        <v>501.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>59.8984</v>
+        <v>40.9</v>
       </c>
       <c r="AF10" t="n">
-        <v>28.2394</v>
+        <v>17.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.1633</v>
+        <v>1.2</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.9444</v>
+        <v>2.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>54.9678</v>
+        <v>64</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.4105</v>
+        <v>10.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2493</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>334.0154</v>
+        <v>443.9758</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0558</v>
+        <v>13.3235</v>
       </c>
       <c r="D11" t="n">
-        <v>19.4112</v>
+        <v>21.9742</v>
       </c>
       <c r="E11" t="n">
-        <v>1483.3954</v>
+        <v>1687.3602</v>
       </c>
       <c r="F11" t="n">
-        <v>12.0728</v>
+        <v>0.1936</v>
       </c>
       <c r="G11" t="n">
-        <v>37.104</v>
+        <v>47.2008</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3345</v>
+        <v>0.9937</v>
       </c>
       <c r="I11" t="n">
-        <v>520.5059</v>
+        <v>532.7043</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6189</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.2291</v>
-      </c>
+        <v>0.8712</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1306.9077</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.1342</v>
-      </c>
+        <v>1503.7433</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>139.7577</v>
+        <v>100.5067</v>
       </c>
       <c r="O11" t="n">
-        <v>50.171</v>
+        <v>75.01730000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.5741000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.2388</v>
+        <v>71.3682</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0443</v>
+        <v>3.8007</v>
       </c>
       <c r="S11" t="n">
-        <v>22.3931</v>
+        <v>31.2762</v>
       </c>
       <c r="T11" t="n">
-        <v>1112.2762</v>
+        <v>1189.4969</v>
       </c>
       <c r="U11" t="n">
-        <v>570.6768</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>607.7217000000001</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6.2132</v>
+      </c>
       <c r="W11" t="n">
-        <v>16.1444</v>
+        <v>11.0905</v>
       </c>
       <c r="X11" t="n">
-        <v>43.7671</v>
+        <v>44.21</v>
       </c>
       <c r="Y11" t="n">
-        <v>119.2497</v>
+        <v>112.2488</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.5231</v>
+        <v>1.2572</v>
       </c>
       <c r="AA11" t="n">
-        <v>53.1963</v>
+        <v>54.8205</v>
       </c>
       <c r="AB11" t="n">
-        <v>506.6486</v>
+        <v>714.2178</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.9176</v>
+        <v>11.532</v>
       </c>
       <c r="AD11" t="n">
-        <v>403.4492</v>
+        <v>638.4977</v>
       </c>
       <c r="AE11" t="n">
-        <v>59.7066</v>
+        <v>43.2751</v>
       </c>
       <c r="AF11" t="n">
-        <v>28.5761</v>
+        <v>20.9133</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.254</v>
+        <v>0.8419</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.4146</v>
+        <v>2.335</v>
       </c>
       <c r="AI11" t="n">
-        <v>54.5759</v>
+        <v>65.9311</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18.5083</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.2824</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>11.9958</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>0.4738</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>349.199</v>
+        <v>451.3551</v>
       </c>
       <c r="C12" t="n">
-        <v>15.631</v>
+        <v>9.1999</v>
       </c>
       <c r="D12" t="n">
-        <v>19.153</v>
+        <v>16.9918</v>
       </c>
       <c r="E12" t="n">
-        <v>1501.5461</v>
+        <v>1501.6947</v>
       </c>
       <c r="F12" t="n">
-        <v>8.445</v>
+        <v>0.4957</v>
       </c>
       <c r="G12" t="n">
-        <v>39.577</v>
+        <v>44.4416</v>
       </c>
       <c r="H12" t="n">
-        <v>3.932</v>
+        <v>0.5108</v>
       </c>
       <c r="I12" t="n">
-        <v>536.505</v>
+        <v>394.2328</v>
       </c>
       <c r="J12" t="n">
-        <v>1.187</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.152</v>
-      </c>
+        <v>0.4579</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1325.0474</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.108</v>
-      </c>
+        <v>1354.7882</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>121.566</v>
+        <v>93.53019999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.378</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.632</v>
-      </c>
+        <v>74.0132</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>61.163</v>
+        <v>54.7052</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.4339</v>
       </c>
       <c r="S12" t="n">
-        <v>21.634</v>
+        <v>27.569</v>
       </c>
       <c r="T12" t="n">
-        <v>1112.735</v>
+        <v>998.8766000000001</v>
       </c>
       <c r="U12" t="n">
-        <v>593.884</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>468.2457</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.3839</v>
+      </c>
       <c r="W12" t="n">
-        <v>15.671</v>
+        <v>7.8966</v>
       </c>
       <c r="X12" t="n">
-        <v>42.849</v>
+        <v>30.9263</v>
       </c>
       <c r="Y12" t="n">
-        <v>115.336</v>
+        <v>92.20189999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.714</v>
+        <v>0.6361</v>
       </c>
       <c r="AA12" t="n">
-        <v>51.916</v>
+        <v>52.2854</v>
       </c>
       <c r="AB12" t="n">
-        <v>531.8229</v>
+        <v>751.6026000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.101</v>
+        <v>9.3597</v>
       </c>
       <c r="AD12" t="n">
-        <v>441.75</v>
+        <v>686.7771</v>
       </c>
       <c r="AE12" t="n">
-        <v>49.854</v>
+        <v>44.9667</v>
       </c>
       <c r="AF12" t="n">
-        <v>27.1176</v>
+        <v>10.4994</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.072</v>
+        <v>1.2568</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.926</v>
+        <v>4.4158</v>
       </c>
       <c r="AI12" t="n">
-        <v>51.324</v>
+        <v>27.268</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.008</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>7.9733</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>0.6384</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.7</v>
+        <v>557.1419</v>
       </c>
       <c r="C13" t="n">
-        <v>13.7</v>
+        <v>11.7714</v>
       </c>
       <c r="D13" t="n">
-        <v>20.9</v>
+        <v>20.0332</v>
       </c>
       <c r="E13" t="n">
-        <v>1476.1</v>
+        <v>1871.0283</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7</v>
+        <v>0.2718</v>
       </c>
       <c r="G13" t="n">
-        <v>31.7</v>
+        <v>57.4766</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>1.2025</v>
       </c>
       <c r="I13" t="n">
-        <v>501.5</v>
+        <v>496.7961</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9</v>
+        <v>0.9404</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1306.1</v>
+        <v>1702.2911</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>93.90000000000001</v>
+        <v>89.2218</v>
       </c>
       <c r="O13" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.8</v>
-      </c>
+        <v>96.4798</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>63.1</v>
+        <v>66.4974</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5</v>
+        <v>0.5975</v>
       </c>
       <c r="S13" t="n">
-        <v>24.3</v>
+        <v>32.8929</v>
       </c>
       <c r="T13" t="n">
-        <v>1104.8</v>
+        <v>1244.796</v>
       </c>
       <c r="U13" t="n">
-        <v>563.6</v>
+        <v>593.2759</v>
       </c>
       <c r="V13" t="n">
-        <v>2.7</v>
+        <v>10.5216</v>
       </c>
       <c r="W13" t="n">
-        <v>14.1</v>
+        <v>9.2567</v>
       </c>
       <c r="X13" t="n">
-        <v>41.7</v>
+        <v>36.3261</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.9</v>
+        <v>102.2394</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.1</v>
+        <v>2.1514</v>
       </c>
       <c r="AA13" t="n">
-        <v>48.2</v>
+        <v>53.5648</v>
       </c>
       <c r="AB13" t="n">
-        <v>569.9</v>
+        <v>979.0484</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.2</v>
+        <v>10.5364</v>
       </c>
       <c r="AD13" t="n">
-        <v>501.7</v>
+        <v>899.1446999999999</v>
       </c>
       <c r="AE13" t="n">
-        <v>40.9</v>
+        <v>56.4336</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.2</v>
+        <v>12.9337</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.2</v>
+        <v>1.1585</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.2</v>
+        <v>3.9408</v>
       </c>
       <c r="AI13" t="n">
-        <v>64</v>
+        <v>27.0342</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.1</v>
-      </c>
+        <v>8.339600000000001</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>443.9758</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.3235</v>
-      </c>
-      <c r="D14" t="n">
-        <v>21.9742</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1687.3602</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1936</v>
-      </c>
-      <c r="G14" t="n">
-        <v>47.2008</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.9937</v>
-      </c>
-      <c r="I14" t="n">
-        <v>532.7043</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8712</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1503.7433</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>100.5067</v>
-      </c>
-      <c r="O14" t="n">
-        <v>75.01730000000001</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.5741000000000001</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>71.3682</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.8007</v>
-      </c>
-      <c r="S14" t="n">
-        <v>31.2762</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1189.4969</v>
-      </c>
-      <c r="U14" t="n">
-        <v>607.7217000000001</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6.2132</v>
-      </c>
-      <c r="W14" t="n">
-        <v>11.0905</v>
-      </c>
-      <c r="X14" t="n">
-        <v>44.21</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>112.2488</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.2572</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>54.8205</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>714.2178</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.532</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>638.4977</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>43.2751</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>20.9133</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.8419</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>2.335</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>65.9311</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11.9958</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>0.4738</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>451.3551</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.1999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.9918</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1501.6947</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.4957</v>
-      </c>
-      <c r="G15" t="n">
-        <v>44.4416</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5108</v>
-      </c>
-      <c r="I15" t="n">
-        <v>394.2328</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4579</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1354.7882</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>93.53019999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>74.0132</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>54.7052</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.4339</v>
-      </c>
-      <c r="S15" t="n">
-        <v>27.569</v>
-      </c>
-      <c r="T15" t="n">
-        <v>998.8766000000001</v>
-      </c>
-      <c r="U15" t="n">
-        <v>468.2457</v>
-      </c>
-      <c r="V15" t="n">
-        <v>6.3839</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.8966</v>
-      </c>
-      <c r="X15" t="n">
-        <v>30.9263</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>92.20189999999999</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.6361</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>52.2854</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>751.6026000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.3597</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>686.7771</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>44.9667</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10.4994</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.2568</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>4.4158</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>27.268</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>7.9733</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>0.6384</v>
+        <v>1.0917</v>
       </c>
     </row>
   </sheetData>
